--- a/similarities/split_global/harmonic_similarity_timestamps_345.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_345.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:00:00.260000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:01:08.150589', '0:01:15.697074')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:02:00', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=120.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:57.600000', '0:01:00.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:58.560000', '0:01:02.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=58.56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
+          <t>('0:00:09.540000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000'), ('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:02.612267', '0:00:20.410362')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000'), ('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:54.180000', '0:01:05.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:25.690000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:00.400000', '0:00:09.040000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:02.080000', '0:01:09.840000')]</t>
+          <t>('0:00:04.860000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=62.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:16.340000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:33', '0:00:48.220000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:07.160000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:00.240000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4', 'D/5', 'A', 'D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G', 'F', 'C', 'F']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:30.076000')]</t>
+          <t>('0:00:07.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:55.505646')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:23.080000', '0:00:29.900000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.300000', '0:00:19.020000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=13.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_118</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'E:min', 'D']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F', 'C:min', 'Bb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:35.880446', '0:00:42.858043')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:27.794000', '0:01:33.460000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-118#t=35.880446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=87.794']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_116</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7', 'F:7']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7', 'G:7']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.980000', '0:00:25.890000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:28.090907', '0:00:44.890544')]</t>
+          <t>('0:02:14.840000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=14.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-116#t=28.090907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:24.760000', '0:00:34.920000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
